--- a/example/web/utility/testFrame/demo_test.xlsx
+++ b/example/web/utility/testFrame/demo_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13520" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13520"/>
   </bookViews>
   <sheets>
     <sheet name="case" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
   <si>
     <t>name</t>
   </si>
@@ -32,79 +32,283 @@
     <t>expect</t>
   </si>
   <si>
-    <t>l:u</t>
+    <t>l:user</t>
   </si>
   <si>
     <t>l:pwd</t>
   </si>
   <si>
-    <t>b:nickname</t>
-  </si>
-  <si>
-    <t>b:password</t>
+    <t>b:params1</t>
+  </si>
+  <si>
+    <t>b:params2</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>case1</t>
+    <t>cash_none</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>no</t>
+    <t>none</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>自行处理断言，等于期望值</t>
+  </si>
+  <si>
+    <t>cash_eq</t>
+  </si>
+  <si>
+    <t>on</t>
   </si>
   <si>
     <t>eq</t>
   </si>
   <si>
-    <t>{"code":51,"message":"用户名不能为空","data":{}}</t>
-  </si>
-  <si>
-    <t>所有参数为空</t>
-  </si>
-  <si>
-    <t>case2</t>
-  </si>
-  <si>
-    <t>{"code":51,"message":"密码不能为空","data":{}}</t>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>等于期望值</t>
+  </si>
+  <si>
+    <t>cash_eq:</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>eq:status</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>json结果指定数据等于期望值</t>
+  </si>
+  <si>
+    <t>cash_ne</t>
+  </si>
+  <si>
+    <t>ne</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>不等于期望值</t>
+  </si>
+  <si>
+    <t>cash_ne:</t>
+  </si>
+  <si>
+    <t>ne:status</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>json结果指定数据不等于期望值</t>
+  </si>
+  <si>
+    <t>cash_gt</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>大于期望值</t>
+  </si>
+  <si>
+    <t>cash_gt:</t>
+  </si>
+  <si>
+    <t>gt:status</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>json结果指定数据大于期望值</t>
+  </si>
+  <si>
+    <t>cash_ge</t>
+  </si>
+  <si>
+    <t>ge</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>大于等于期望值</t>
+  </si>
+  <si>
+    <t>cash_ge:</t>
+  </si>
+  <si>
+    <t>ge:status</t>
+  </si>
+  <si>
+    <t>test9</t>
+  </si>
+  <si>
+    <t>json结果指定数据大于等于期望值</t>
+  </si>
+  <si>
+    <t>cash_lt</t>
+  </si>
+  <si>
+    <t>lt</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>test10</t>
+  </si>
+  <si>
+    <t>小于期望值</t>
+  </si>
+  <si>
+    <t>cash_lt:</t>
+  </si>
+  <si>
+    <t>lt:status</t>
+  </si>
+  <si>
+    <t>test11</t>
+  </si>
+  <si>
+    <t>json结果指定数据小于期望值</t>
+  </si>
+  <si>
+    <t>cash_le</t>
+  </si>
+  <si>
+    <t>le</t>
+  </si>
+  <si>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>小于等于期望值</t>
+  </si>
+  <si>
+    <t>cash_le:</t>
+  </si>
+  <si>
+    <t>le:status</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>json结果指定数据小于等于期望值</t>
+  </si>
+  <si>
+    <t>cash_in</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>["cash_in"]</t>
+  </si>
+  <si>
+    <t>test14</t>
+  </si>
+  <si>
+    <t>属于期望值</t>
+  </si>
+  <si>
+    <t>cash_in:</t>
+  </si>
+  <si>
+    <t>in:data.test</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>test15</t>
+  </si>
+  <si>
+    <t>json结果指定数据属于期望值</t>
+  </si>
+  <si>
+    <t>cash_ni</t>
+  </si>
+  <si>
+    <t>ni</t>
+  </si>
+  <si>
+    <t>[""]</t>
+  </si>
+  <si>
+    <t>test16</t>
+  </si>
+  <si>
+    <t>不属于期望值</t>
+  </si>
+  <si>
+    <t>cash_ni:</t>
+  </si>
+  <si>
+    <t>ni:data.test</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>test17</t>
+  </si>
+  <si>
+    <t>json结果指定数据不属于期望值</t>
+  </si>
+  <si>
+    <t>cash_none_noOpen</t>
+  </si>
+  <si>
+    <t>test18</t>
+  </si>
+  <si>
+    <t>未开启的用例</t>
+  </si>
+  <si>
+    <t>cash_none_noDesc</t>
+  </si>
+  <si>
+    <t>test19</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>create_at</t>
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>只用户名</t>
-  </si>
-  <si>
-    <t>case3</t>
-  </si>
-  <si>
-    <t>{"code":0,"message":"success","data":{}}</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>正常</t>
-  </si>
-  <si>
-    <t>case4</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>create_at</t>
   </si>
   <si>
     <t>2024-01-01 00:00:00</t>
@@ -1263,30 +1467,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="16.8"/>
   <cols>
-    <col min="2" max="2" width="10.3076923076923" customWidth="1"/>
-    <col min="3" max="3" width="12.7692307692308" customWidth="1"/>
+    <col min="1" max="1" width="28.3076923076923" customWidth="1"/>
+    <col min="2" max="2" width="8" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6923076923077" customWidth="1"/>
     <col min="4" max="4" width="11.0769230769231" customWidth="1"/>
-    <col min="5" max="5" width="56.8461538461538" customWidth="1"/>
-    <col min="6" max="6" width="8.38461538461539" customWidth="1"/>
-    <col min="7" max="7" width="10.3076923076923" customWidth="1"/>
-    <col min="8" max="8" width="12.0769230769231" customWidth="1"/>
-    <col min="9" max="9" width="11.6153846153846" customWidth="1"/>
-    <col min="10" max="10" width="56.3846153846154" customWidth="1"/>
+    <col min="5" max="5" width="11.5384615384615" customWidth="1"/>
+    <col min="6" max="6" width="6.38461538461539" customWidth="1"/>
+    <col min="7" max="7" width="6.46153846153846" customWidth="1"/>
+    <col min="8" max="9" width="10.9230769230769" customWidth="1"/>
+    <col min="10" max="10" width="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1318,17 +1522,17 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1336,25 +1540,31 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -1363,6 +1573,9 @@
         <v>2</v>
       </c>
       <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
         <v>18</v>
       </c>
       <c r="J3" t="s">
@@ -1373,17 +1586,17 @@
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+      <c r="B4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
       </c>
       <c r="F4">
         <v>3</v>
@@ -1392,31 +1605,27 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="E5" s="1"/>
       <c r="F5">
         <v>4</v>
       </c>
@@ -1424,13 +1633,456 @@
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="G12">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>62</v>
+      </c>
+      <c r="J13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" t="s">
+        <v>76</v>
+      </c>
+      <c r="J16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17">
+        <v>16</v>
+      </c>
+      <c r="G17">
+        <v>16</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19">
         <v>18</v>
       </c>
-      <c r="J5" t="s">
-        <v>23</v>
+      <c r="G19">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="G20">
+        <v>19</v>
+      </c>
+      <c r="H20" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1444,8 +2096,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -1458,16 +2110,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1475,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>1111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
